--- a/Apromore-Custom-Plugins/CSVImporter-Logic/src/test/resources/test11-encoding.xlsx
+++ b/Apromore-Custom-Plugins/CSVImporter-Logic/src/test/resources/test11-encoding.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/own_strong/Dev/Apromore-prod/ApromoreEE/ApromoreCore/Apromore-Custom-Plugins/CSVImporter-Logic/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/own_strong/Dev/Apromore-prod/ApromoreEE_CSVImport/ApromoreEE/ApromoreCore/Apromore-Custom-Plugins/CSVImporter-Logic/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2663BD85-FF3B-454D-AEE1-53D1A403C78C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4139B56F-2367-A14D-889A-9245A5EAFDB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test11-encoding" sheetId="1" r:id="rId1"/>
@@ -22,40 +22,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
-    <t>ÓÒÙ¯ ‰ÊÓcase id‰</t>
-  </si>
-  <si>
-    <t>ÒËactivityËÂÒ</t>
-  </si>
-  <si>
-    <t>ÏËÈÙÂÏ</t>
-  </si>
-  <si>
     <t>timestamp</t>
-  </si>
-  <si>
-    <t>ÓÒ Ï˜ÂÁ</t>
   </si>
   <si>
     <t>SO10000001</t>
   </si>
   <si>
-    <t>ËÈÂË‡</t>
+    <t>SO11000099</t>
   </si>
   <si>
-    <t>Ó·ÂËÏ˙</t>
+    <t>מספר הזמנcase idה</t>
   </si>
   <si>
-    <t>·ÚÈ˙ ‡Â·ÏÈ‚Â</t>
+    <t>סטactivityטוס</t>
   </si>
   <si>
-    <t>SO11000099</t>
+    <t>טיוטא</t>
+  </si>
+  <si>
+    <t>מבוטלת</t>
+  </si>
+  <si>
+    <t>בעית אובליגו</t>
+  </si>
+  <si>
+    <t>מס לקוח</t>
+  </si>
+  <si>
+    <t>לטיפול</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -890,36 +890,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="35.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" customWidth="1"/>
+    <col min="5" max="5" width="45.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
       </c>
       <c r="C2">
         <v>24</v>
@@ -933,10 +942,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -950,10 +959,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>25</v>
@@ -967,10 +976,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>24</v>
@@ -984,10 +993,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>38</v>

--- a/Apromore-Custom-Plugins/CSVImporter-Logic/src/test/resources/test11-encoding.xlsx
+++ b/Apromore-Custom-Plugins/CSVImporter-Logic/src/test/resources/test11-encoding.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/own_strong/Dev/Apromore-prod/ApromoreEE_CSVImport/ApromoreEE/ApromoreCore/Apromore-Custom-Plugins/CSVImporter-Logic/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/own_strong/Dev/Apromore-prod/ApromoreEE/ApromoreCore/Apromore-Custom-Plugins/CSVImporter-Logic/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4139B56F-2367-A14D-889A-9245A5EAFDB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F43956-55B2-864D-BD16-632CFA6842C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test11-encoding" sheetId="1" r:id="rId1"/>
@@ -894,7 +894,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
